--- a/EC/Train Runs and Enforcements 2016-06-21.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-21.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1936,7 +1936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2191,6 +2191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2579,7 +2580,7 @@
   <dimension ref="A1:CM163"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,6 +2634,10 @@
       <c r="N1" s="101"/>
       <c r="O1" s="101"/>
       <c r="P1" s="101"/>
+      <c r="S1" s="104">
+        <f>AVERAGE(S3:S99989)</f>
+        <v>0.88260340632603396</v>
+      </c>
     </row>
     <row r="2" spans="1:91" s="11" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
@@ -15147,7 +15152,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="AA131" s="63">
-        <f t="shared" ref="AA131:AA162" si="58">ABS(Z131-Y131)</f>
+        <f t="shared" ref="AA131:AA145" si="58">ABS(Z131-Y131)</f>
         <v>23.279500000000002</v>
       </c>
       <c r="AB131" s="64" t="e">
